--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFD18C-6535-48A5-AB26-1BF99C1E59D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F060D-D48C-4D0A-8042-1CD8E37738BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>TestCase</t>
   </si>
@@ -167,15 +167,6 @@
     <t>$Registered_Password</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>Link_acc_RegiseredUser</t>
   </si>
   <si>
@@ -183,6 +174,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -600,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D22"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -654,76 +651,74 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
@@ -731,42 +726,42 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
@@ -774,13 +769,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -789,13 +784,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,13 +799,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -819,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -834,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -849,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -864,13 +859,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -879,13 +874,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -894,13 +889,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -908,28 +903,43 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1154,10 +1164,10 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1179,6 +1189,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1375,12 +1391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
@@ -1390,6 +1400,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1406,13 +1425,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7F060D-D48C-4D0A-8042-1CD8E37738BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1472928-CDEC-46CD-9465-E521E52A12E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02_Verify_MYACC_RegisteredUse" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>TestCase</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>LoginButton</t>
+  </si>
+  <si>
+    <t>PurchasingHistory</t>
+  </si>
+  <si>
+    <t>Purchasing History</t>
+  </si>
+  <si>
+    <t>QuickOrderMyacc</t>
+  </si>
+  <si>
+    <t>Storerooms</t>
   </si>
 </sst>
 </file>
@@ -599,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -859,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>50</v>
@@ -874,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>50</v>
@@ -889,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>50</v>
@@ -952,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1071,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1087,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1180,21 +1192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1391,24 +1388,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1425,4 +1420,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1472928-CDEC-46CD-9465-E521E52A12E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF8D95-FA66-427D-A9CB-F1B193A01D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02_Verify_MYACC_RegisteredUse" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>TestCase</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Quick order</t>
   </si>
   <si>
-    <t>Storeroooms</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>Log out</t>
-  </si>
-  <si>
     <t>GearingPLPHeader</t>
   </si>
   <si>
@@ -185,13 +179,25 @@
     <t>PurchasingHistory</t>
   </si>
   <si>
-    <t>Purchasing History</t>
-  </si>
-  <si>
-    <t>QuickOrderMyacc</t>
-  </si>
-  <si>
     <t>Storerooms</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>MOUSEOVER</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>MyaccountSecRegisteredUser</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
   </si>
 </sst>
 </file>
@@ -255,14 +261,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,19 +613,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -643,7 +647,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -656,27 +660,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>51</v>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -685,11 +689,11 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -700,11 +704,11 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -715,18 +719,18 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -740,8 +744,8 @@
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -753,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -768,10 +772,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -783,8 +787,8 @@
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -798,8 +802,8 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -813,8 +817,8 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -828,8 +832,8 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
@@ -843,8 +847,8 @@
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -858,8 +862,8 @@
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
@@ -871,10 +875,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>25</v>
@@ -886,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -901,10 +905,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
@@ -918,8 +922,8 @@
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
@@ -927,31 +931,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -962,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -987,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -995,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1003,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1035,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1043,7 +1032,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1051,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1083,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1096,39 +1085,39 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1136,15 +1125,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1152,7 +1141,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1160,7 +1149,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1168,7 +1157,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1176,10 +1165,26 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1192,6 +1197,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1388,22 +1408,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1420,21 +1442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>